--- a/data/trans_dic/P54_A_7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>1,23; 7,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>5,31; 13,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,86; 5,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,7; 8,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,39; 3,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>2,08; 7,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,48; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>1,33; 6,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,76; 5,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,12; 5,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,99; 3,71</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,15; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,3; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>4,95; 11,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,77; 3,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>4,19; 8,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,69; 2,48</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>3,57; 9,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,34; 3,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>5,86; 11,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,9; 3,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,16; 9,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,97; 3,11</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>3,95; 10,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,38; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>4,07; 13,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,17; 5,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,68; 10,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,94; 3,45</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>4,92; 13,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>1,58; 7,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>1,94; 7,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,4; 3,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>4,03; 8,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,26; 4,31</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,16; 6,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,98; 2,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,45; 8,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,06; 0,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,43; 2,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,1; 7,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,03; 0,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,31; 2,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15170</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39613</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12021</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>54783</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5933; 33975</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24280; 63482</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4395; 28908</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34789; 82216</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4054; 30902</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15020</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11303</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38881</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22248</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11455; 43237</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2708; 26593</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6470; 31374</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3847; 26921</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21997; 61470</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10553; 39642</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25285</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6350</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51335</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13075</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76620</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19425</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13871; 44539</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2028; 19274</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32569; 72965</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5456; 25769</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54555; 105411</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9508; 34166</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35726</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8120</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54590</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>90317</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22243</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21676; 54715</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2144; 19270</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38300; 75620</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11268</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5947; 25205</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65004; 119385</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11406</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12521; 40208</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31247</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6035</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35583</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12904</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>66830</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18939</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18902; 51999</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1862; 15789</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19124; 62584</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5865; 26503</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44423; 97872</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9317; 34300</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>38094</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20873</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23376</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5780</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8511</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>61470</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5780</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>29384</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22706; 60991</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8236; 38737</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10808; 41150</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20932</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2626; 22804</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>40998; 88719</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22729</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14876; 50765</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>169384</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52323</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>219518</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>71936</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>388901</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>124259</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>134273; 212542</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>33191; 79749</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>178883; 267993</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2273; 24133</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>50695; 100713</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>331984; 455478</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2265; 24192</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>90895; 160607</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>